--- a/Data Files/Test data.xlsx
+++ b/Data Files/Test data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="19200" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="Sign up" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Parasoft Forums" sheetId="10" r:id="rId10"/>
     <sheet name="Locations" sheetId="11" r:id="rId11"/>
     <sheet name="Products" sheetId="12" r:id="rId12"/>
+    <sheet name="Forgot Login Info" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
   <si>
     <t>First Name</t>
   </si>
@@ -94,7 +95,7 @@
     <t>0564411666</t>
   </si>
   <si>
-    <t>testuser1</t>
+    <t>testuser8</t>
   </si>
   <si>
     <t>510520@Mm</t>
@@ -272,6 +273,12 @@
   </si>
   <si>
     <t>Products</t>
+  </si>
+  <si>
+    <t>Success Message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your login information was located successfully. You are now logged in. </t>
   </si>
 </sst>
 </file>
@@ -904,9 +911,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1238,8 +1244,8 @@
   <sheetPr/>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
@@ -1258,37 +1264,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -1296,16 +1302,16 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
@@ -1314,7 +1320,7 @@
       <c r="F2">
         <v>1234</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H2">
@@ -1323,10 +1329,10 @@
       <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L2" t="s">
@@ -1334,24 +1340,24 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1480,6 +1486,36 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="71.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -1506,8 +1542,8 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1539,31 +1575,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J1" t="s">
@@ -1586,7 +1622,7 @@
       <c r="E2">
         <v>1234</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G2">
@@ -1598,7 +1634,7 @@
       <c r="I2">
         <v>20</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1647,10 +1683,10 @@
       <c r="A2">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D2" t="s">
@@ -1711,55 +1747,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="H2" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E3" t="s">
@@ -1768,7 +1804,7 @@
       <c r="F3">
         <v>4444</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1849,7 +1885,7 @@
       <c r="A2">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1898,10 +1934,10 @@
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D2" t="s">
